--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1647694.465918401</v>
+        <v>1744364.442402776</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>368.1346192707289</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>173.3648705534648</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>22.81744246378262</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>18.98362271315965</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>168.5336386074414</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>228.2686594923563</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>145.0714343917599</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>126.3298627762801</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>257.8768435180403</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>130.778457276534</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>60.85599612146616</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>94.69402002676112</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.57459922244825</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>62.09581973348958</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>182.1012676634238</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>60.86404150922455</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>7.65126090316695</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2050,7 +2052,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2059,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>104.4052339083162</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2293,10 +2295,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>149.2419515106225</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V25" t="n">
-        <v>80.45641390352729</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491552</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2773,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>34.43605357443374</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>59.90320919298912</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3190,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>173.6268892744757</v>
+        <v>174.6303967226478</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3244,16 +3246,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>18.93482921065027</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>62.09581973348946</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3557,7 +3559,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>141.167062152907</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>109.0187960410209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3952,19 +3954,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.00352625391691</v>
+        <v>1.487334137518444</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>57.80541963716012</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>997.225916705602</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>997.225916705602</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>997.225916705602</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205144</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>2135.941483343059</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X2" t="n">
-        <v>2135.941483343059</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y2" t="n">
-        <v>2135.941483343059</v>
+        <v>1366.188433646014</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207637</v>
@@ -4452,7 +4454,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>381.6292235663332</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>381.6292235663332</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>381.6292235663332</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>234.7392760684228</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>234.7392760684228</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>76.99090350095295</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>76.99090350095295</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4512,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541693</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>444.0275768541693</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X4" t="n">
-        <v>424.8522003762303</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1902.75190621448</v>
+        <v>1606.946621408919</v>
       </c>
       <c r="C5" t="n">
-        <v>1533.789389274068</v>
+        <v>1606.946621408919</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1248.680922802168</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>862.8926702039241</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>451.9067654143166</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>437.9833613529075</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.351746278601</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y5" t="n">
-        <v>2289.351746278601</v>
+        <v>1993.546461473041</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,10 +4667,10 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>581.5921817905153</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>581.5921817905153</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>354.283994459117</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146243</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146243</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1470.569074795015</v>
+        <v>982.8165910026951</v>
       </c>
       <c r="C8" t="n">
-        <v>1470.569074795015</v>
+        <v>982.8165910026951</v>
       </c>
       <c r="D8" t="n">
-        <v>1470.569074795015</v>
+        <v>982.8165910026951</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>597.0283384044508</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>186.0424336148432</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.168914859137</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,7 +4892,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.9194859165262</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="C10" t="n">
-        <v>308.9833029886194</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="I10" t="n">
         <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="Y10" t="n">
-        <v>477.9194859165262</v>
+        <v>195.2500315327868</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5072,19 +5074,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5160,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>1036.495701195956</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>867.5595182680493</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>717.4428788557135</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>569.5297852733204</v>
       </c>
       <c r="F13" t="n">
         <v>506.8067350374723</v>
@@ -5221,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="W13" t="n">
-        <v>1577.095838825271</v>
+        <v>1666.926296067743</v>
       </c>
       <c r="X13" t="n">
-        <v>1349.106287927254</v>
+        <v>1438.936745169726</v>
       </c>
       <c r="Y13" t="n">
-        <v>1128.313708783724</v>
+        <v>1218.144166026196</v>
       </c>
     </row>
     <row r="14">
@@ -5252,58 +5254,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
         <v>4461.783306331037</v>
@@ -5312,16 +5314,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5388,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>508.0400813400981</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C16" t="n">
-        <v>339.1038984121913</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D16" t="n">
-        <v>339.1038984121913</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E16" t="n">
-        <v>339.1038984121913</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
         <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5458,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1682.572334454733</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1682.572334454733</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1682.572334454733</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V16" t="n">
-        <v>1427.887846248846</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="W16" t="n">
-        <v>1138.470676211885</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X16" t="n">
-        <v>910.481125313868</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y16" t="n">
-        <v>689.6885461703379</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5494,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
@@ -5519,40 +5521,40 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>1897.67628410419</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.5418683145538</v>
+        <v>715.1755123426802</v>
       </c>
       <c r="C19" t="n">
-        <v>811.5418683145538</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="D19" t="n">
-        <v>661.425228902218</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E19" t="n">
         <v>653.6966825353827</v>
@@ -5665,10 +5667,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5698,25 +5700,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.959038351514</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W19" t="n">
-        <v>811.5418683145538</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="X19" t="n">
-        <v>811.5418683145538</v>
+        <v>935.9680914862104</v>
       </c>
       <c r="Y19" t="n">
-        <v>811.5418683145538</v>
+        <v>715.1755123426802</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5743,13 @@
         <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5768,13 +5770,13 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5805,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5847,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>909.2731541783409</v>
+        <v>3942.370854773035</v>
       </c>
       <c r="C22" t="n">
-        <v>909.2731541783409</v>
+        <v>3773.434671845128</v>
       </c>
       <c r="D22" t="n">
-        <v>759.1565147660051</v>
+        <v>3623.318032432792</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>3475.404938850399</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>3328.514991352489</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>3160.812154727208</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="W22" t="n">
-        <v>909.2731541783409</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="X22" t="n">
-        <v>909.2731541783409</v>
+        <v>4274.7687655736</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.2731541783409</v>
+        <v>4124.019319603274</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5986,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6072,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6178,19 +6180,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1172.518994673642</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1172.518994673642</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>1172.518994673642</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>951.7264155301116</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6205,40 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>416.3606924710442</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>750.1800661608906</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1614.698881814245</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M26" t="n">
-        <v>2593.249184644074</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N26" t="n">
-        <v>3573.001456870721</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
@@ -6257,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.6966825353827</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="C28" t="n">
-        <v>653.6966825353827</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="D28" t="n">
-        <v>653.6966825353827</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>4380.904410752402</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>4091.801543878046</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>3837.117055672159</v>
       </c>
       <c r="W28" t="n">
-        <v>874.4892616789128</v>
+        <v>3547.699885635198</v>
       </c>
       <c r="X28" t="n">
-        <v>874.4892616789128</v>
+        <v>3319.710334737181</v>
       </c>
       <c r="Y28" t="n">
-        <v>653.6966825353827</v>
+        <v>3098.917755593651</v>
       </c>
     </row>
     <row r="29">
@@ -6467,16 +6469,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2047.844055175504</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3027.596327402151</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107236</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.2000540015823</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736754</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>4586.365838246546</v>
       </c>
       <c r="T31" t="n">
-        <v>1895.835173990573</v>
+        <v>4364.599222816072</v>
       </c>
       <c r="U31" t="n">
-        <v>1606.732307116217</v>
+        <v>4091.801543878046</v>
       </c>
       <c r="V31" t="n">
-        <v>1352.04781891033</v>
+        <v>3837.117055672159</v>
       </c>
       <c r="W31" t="n">
-        <v>1062.630648873369</v>
+        <v>3547.699885635198</v>
       </c>
       <c r="X31" t="n">
-        <v>834.6410979753522</v>
+        <v>3319.710334737181</v>
       </c>
       <c r="Y31" t="n">
-        <v>613.848518831822</v>
+        <v>3098.917755593651</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6679,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6731,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,58 +6755,58 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6880,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1690.118668738345</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1468.352053307871</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1179.249186433515</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1179.249186433515</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>889.8320163965544</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>889.8320163965544</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>889.8320163965544</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6937,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>932.5990189467736</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1797.117834600128</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M35" t="n">
-        <v>2330.649739272053</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N35" t="n">
-        <v>2877.428556330835</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>241.7782212305366</v>
+        <v>973.7726509601081</v>
       </c>
       <c r="C37" t="n">
-        <v>241.7782212305366</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D37" t="n">
-        <v>241.7782212305366</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E37" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F37" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839441</v>
@@ -7120,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>1893.620415868856</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>1604.203245831895</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>1376.213694933878</v>
       </c>
       <c r="Y37" t="n">
-        <v>260.9043113423046</v>
+        <v>1155.421115790348</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7178,7 +7180,7 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1586.925993846823</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
         <v>2120.457898518747</v>
@@ -7208,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>509.735988140349</v>
+        <v>3303.405146800851</v>
       </c>
       <c r="C40" t="n">
-        <v>340.7998052124422</v>
+        <v>3303.405146800851</v>
       </c>
       <c r="D40" t="n">
-        <v>340.7998052124422</v>
+        <v>3303.405146800851</v>
       </c>
       <c r="E40" t="n">
-        <v>192.886711630049</v>
+        <v>3303.405146800851</v>
       </c>
       <c r="F40" t="n">
-        <v>192.886711630049</v>
+        <v>3303.405146800851</v>
       </c>
       <c r="G40" t="n">
-        <v>192.886711630049</v>
+        <v>3160.812154727208</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>4586.365838246546</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>4364.599222816072</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>4075.496355941716</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>3820.811867735829</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413803</v>
+        <v>3531.394697698868</v>
       </c>
       <c r="X40" t="n">
-        <v>509.735988140349</v>
+        <v>3303.405146800851</v>
       </c>
       <c r="Y40" t="n">
-        <v>509.735988140349</v>
+        <v>3303.405146800851</v>
       </c>
     </row>
     <row r="41">
@@ -7388,46 +7390,46 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>818.2062848686767</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1682.725100522031</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193956</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420603</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q41" t="n">
         <v>4719.034655862918</v>
@@ -7442,19 +7444,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1023.336921276364</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C43" t="n">
-        <v>854.4007383484569</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D43" t="n">
-        <v>704.2840989361212</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E43" t="n">
-        <v>556.371005353728</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839441</v>
@@ -7591,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1542.890966501056</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>1253.473796464095</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X43" t="n">
-        <v>1253.473796464095</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y43" t="n">
-        <v>1204.985386106604</v>
+        <v>390.3640755286979</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7731,7 +7733,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>725.3071882816349</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839441</v>
@@ -7828,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1706.268269166722</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1417.165402292365</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1417.165402292365</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>1127.748232255405</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>1127.748232255405</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.9556531118747</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8298,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8538,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8927,19 +8929,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9167,19 +9169,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>297.8289162490807</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9413,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10115,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,10 +10126,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>229.1155640189926</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>317.5146261106135</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,10 +10828,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>29.61882225792044</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>29.61882225792056</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>201.9664098701115</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>172.257380959489</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>83.32522828944167</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23656,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>7.667757668018083</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -23710,10 +23712,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>106.3827795894033</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>138.7827017434022</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>42.02872873825301</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>69.34270184147232</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V25" t="n">
-        <v>171.6812294203007</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>105.074288727014</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>252.0869447621573</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24886,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>159.6457400831801</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696617</v>
+        <v>15.13862860879414</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>160.897150971287</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>190.0418235903385</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>24.8587461061212</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>116.6908593480162</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>170.5811270981779</v>
+        <v>217.0973192145763</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>161.7435296390091</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26316,46 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
+        <v>516206.3229530783</v>
+      </c>
+      <c r="F2" t="n">
         <v>516206.3229530782</v>
-      </c>
-      <c r="F2" t="n">
-        <v>516206.3229530783</v>
       </c>
       <c r="G2" t="n">
         <v>516206.3229530783</v>
       </c>
       <c r="H2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="I2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="J2" t="n">
-        <v>516206.3229530784</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="K2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="L2" t="n">
         <v>516206.3229530781</v>
       </c>
       <c r="M2" t="n">
+        <v>516206.3229530782</v>
+      </c>
+      <c r="N2" t="n">
         <v>516206.3229530781</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>516206.3229530783</v>
+      </c>
+      <c r="P2" t="n">
         <v>516206.3229530782</v>
-      </c>
-      <c r="O2" t="n">
-        <v>516206.3229530782</v>
-      </c>
-      <c r="P2" t="n">
-        <v>516206.3229530781</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499381</v>
@@ -26445,10 +26447,10 @@
         <v>25090.72367499381</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="N4" t="n">
         <v>25090.72367499381</v>
@@ -26470,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,16 +26481,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26497,7 +26499,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-340214.3127939012</v>
+        <v>-340214.3127939011</v>
       </c>
       <c r="C6" t="n">
         <v>249753.5664206434</v>
       </c>
       <c r="D6" t="n">
-        <v>249753.5664206432</v>
+        <v>249753.5664206435</v>
       </c>
       <c r="E6" t="n">
         <v>-332645.332969036</v>
       </c>
       <c r="F6" t="n">
+        <v>394732.0810243707</v>
+      </c>
+      <c r="G6" t="n">
         <v>394732.0810243709</v>
-      </c>
-      <c r="G6" t="n">
-        <v>394732.0810243707</v>
       </c>
       <c r="H6" t="n">
         <v>394732.0810243707</v>
       </c>
       <c r="I6" t="n">
-        <v>394732.0810243707</v>
+        <v>394732.0810243709</v>
       </c>
       <c r="J6" t="n">
-        <v>218308.8618317781</v>
+        <v>218308.8618317779</v>
       </c>
       <c r="K6" t="n">
+        <v>394732.0810243709</v>
+      </c>
+      <c r="L6" t="n">
         <v>394732.0810243706</v>
       </c>
-      <c r="L6" t="n">
-        <v>394732.0810243707</v>
-      </c>
       <c r="M6" t="n">
-        <v>265089.7661854259</v>
+        <v>265089.766185426</v>
       </c>
       <c r="N6" t="n">
         <v>394732.0810243707</v>
       </c>
       <c r="O6" t="n">
+        <v>394732.0810243709</v>
+      </c>
+      <c r="P6" t="n">
         <v>394732.0810243707</v>
-      </c>
-      <c r="P6" t="n">
-        <v>394732.0810243706</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>38.7414264709825</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>175.8760981639483</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>22.38251672475439</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>206.7260326758775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>186.1494030132416</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>95.65411327200084</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>1.593757588398006</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>160.1931355603109</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>124.0535265542215</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>283.005712744261</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>87.75947689674621</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>40.27160176557713</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31844,7 +31846,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
         <v>593.9283018233475</v>
@@ -32078,7 +32080,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32318,7 +32320,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33752,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34226,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34451,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,7 +35494,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
         <v>451.7942679013292</v>
@@ -35647,19 +35649,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35726,7 +35728,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35887,19 +35889,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>836.7500320793075</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
@@ -35966,7 +35968,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -36133,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>324.0400586087371</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36607,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36835,7 +36837,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36844,10 +36846,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>737.1685649072117</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>654.705912666014</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37318,16 +37320,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37546,10 +37548,10 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>485.2089366502526</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>568.5399380881473</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>539.157696425512</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37874,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1744364.442402776</v>
+        <v>1738642.83043489</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836234</v>
       </c>
     </row>
     <row r="8">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>368.1346192707289</v>
+        <v>213.4214618859375</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.81744246378262</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>228.2686594923563</v>
+        <v>83.84703239435426</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>145.0714343917599</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>130.778457276534</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>138.3295234829028</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.9566202902064</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>94.69402002676112</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853701</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>62.09581973348958</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>78.52789638094471</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>144.7801363297485</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>60.86404150922455</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2061,10 +2061,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>149.2419515106225</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
     <row r="23">
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2766,13 +2766,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>114.4746605491552</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968146</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3006,7 +3006,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>270.0697021486461</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>174.6303967226478</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,13 +3246,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>208.271177022707</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>193.7227085619089</v>
       </c>
       <c r="V37" t="n">
-        <v>62.09581973348946</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3559,7 +3559,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.167062152907</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>118.0927541397966</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>17.25588147840188</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.487334137518444</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.75769145492406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1366.188433646014</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="C2" t="n">
-        <v>997.225916705602</v>
+        <v>840.9500001553076</v>
       </c>
       <c r="D2" t="n">
-        <v>997.225916705602</v>
+        <v>840.9500001553076</v>
       </c>
       <c r="E2" t="n">
-        <v>997.225916705602</v>
+        <v>840.9500001553076</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X2" t="n">
-        <v>1366.188433646014</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y2" t="n">
-        <v>1366.188433646014</v>
+        <v>1209.912517095719</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,25 +4415,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>381.6292235663332</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D4" t="n">
-        <v>381.6292235663332</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E4" t="n">
-        <v>381.6292235663332</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F4" t="n">
-        <v>234.7392760684228</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>234.7392760684228</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>76.99090350095295</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>76.99090350095295</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1606.946621408919</v>
+        <v>1121.052642832205</v>
       </c>
       <c r="C5" t="n">
-        <v>1606.946621408919</v>
+        <v>1121.052642832205</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.680922802168</v>
+        <v>1121.052642832205</v>
       </c>
       <c r="E5" t="n">
-        <v>862.8926702039241</v>
+        <v>1121.052642832205</v>
       </c>
       <c r="F5" t="n">
-        <v>451.9067654143166</v>
+        <v>710.0667380425973</v>
       </c>
       <c r="G5" t="n">
-        <v>437.9833613529075</v>
+        <v>292.1029299407842</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.546461473041</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.546461473041</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.546461473041</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y5" t="n">
-        <v>1993.546461473041</v>
+        <v>1507.652482896327</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4673,16 +4673,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>581.5921817905153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>581.5921817905153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>982.8165910026951</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="C8" t="n">
-        <v>982.8165910026951</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="D8" t="n">
-        <v>982.8165910026951</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="E8" t="n">
-        <v>597.0283384044508</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="F8" t="n">
-        <v>186.0424336148432</v>
+        <v>207.5931772786451</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>193.669773217236</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>193.669773217236</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656313</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.555763042629</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y8" t="n">
-        <v>1369.416431066817</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>195.2500315327868</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>195.2500315327868</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>195.2500315327868</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>195.2500315327868</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>195.2500315327868</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>195.2500315327868</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>195.2500315327868</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4989,25 +4989,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>195.2500315327868</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>195.2500315327868</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>195.2500315327868</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>195.2500315327868</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>195.2500315327868</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5026,67 +5026,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1036.495701195956</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C13" t="n">
-        <v>867.5595182680493</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D13" t="n">
-        <v>717.4428788557135</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E13" t="n">
-        <v>569.5297852733204</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V13" t="n">
-        <v>1956.343466104704</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W13" t="n">
-        <v>1666.926296067743</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="X13" t="n">
-        <v>1438.936745169726</v>
+        <v>970.38647015468</v>
       </c>
       <c r="Y13" t="n">
-        <v>1218.144166026196</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
         <v>4778.05172241972</v>
@@ -5314,16 +5314,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5360,10 +5360,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>506.832110204571</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>506.832110204571</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>506.832110204571</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H16" t="n">
         <v>192.886711630049</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1956.343466104704</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.093193329805</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>688.4805750348107</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,7 +5500,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5515,22 +5515,22 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1296.118160724478</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3254.420735780953</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107236</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5600,7 +5600,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>715.1755123426802</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C19" t="n">
-        <v>653.6966825353827</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D19" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839441</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1163.957642384228</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1163.957642384228</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>935.9680914862104</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>715.1755123426802</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,28 +5752,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3163.468180669545</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,16 +5849,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3942.370854773035</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>3773.434671845128</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>3623.318032432792</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>3475.404938850399</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>3328.514991352489</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004074</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.7687655736</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>4274.7687655736</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>4274.7687655736</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>4274.7687655736</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>4274.7687655736</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>4124.019319603274</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6174,10 +6174,10 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
         <v>1270.093287563029</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,13 +6211,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6232,13 +6232,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
@@ -6262,16 +6262,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>4496.535381004074</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>4380.904410752402</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>4091.801543878046</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>3837.117055672159</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>3547.699885635198</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>3319.710334737181</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>3098.917755593651</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6545,10 +6545,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>4586.365838246546</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>4364.599222816072</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>4091.801543878046</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>3837.117055672159</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>3547.699885635198</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>3319.710334737181</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>3098.917755593651</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6755,58 +6755,58 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>708.1835515663147</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C34" t="n">
-        <v>708.1835515663147</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D34" t="n">
-        <v>558.0669121539789</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,25 +6885,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1690.118668738345</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1468.352053307871</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1179.249186433515</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1179.249186433515</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>889.8320163965544</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>889.8320163965544</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.8320163965544</v>
+        <v>409.4810578558177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>973.7726509601081</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C37" t="n">
-        <v>804.8364680322012</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.343466104704</v>
+        <v>1257.381005660696</v>
       </c>
       <c r="V37" t="n">
-        <v>1893.620415868856</v>
+        <v>1002.69651745481</v>
       </c>
       <c r="W37" t="n">
-        <v>1604.203245831895</v>
+        <v>713.2793474178488</v>
       </c>
       <c r="X37" t="n">
-        <v>1376.213694933878</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y37" t="n">
-        <v>1155.421115790348</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="38">
@@ -7153,67 +7153,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>416.3606924710451</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M38" t="n">
-        <v>2120.457898518747</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N38" t="n">
-        <v>2667.23671557753</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3303.405146800851</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C40" t="n">
-        <v>3303.405146800851</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D40" t="n">
-        <v>3303.405146800851</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E40" t="n">
-        <v>3303.405146800851</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>3303.405146800851</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>4586.365838246546</v>
+        <v>1747.227398620013</v>
       </c>
       <c r="T40" t="n">
-        <v>4364.599222816072</v>
+        <v>1525.460783189539</v>
       </c>
       <c r="U40" t="n">
-        <v>4075.496355941716</v>
+        <v>1236.357916315183</v>
       </c>
       <c r="V40" t="n">
-        <v>3820.811867735829</v>
+        <v>981.6734281092956</v>
       </c>
       <c r="W40" t="n">
-        <v>3531.394697698868</v>
+        <v>692.256258072335</v>
       </c>
       <c r="X40" t="n">
-        <v>3303.405146800851</v>
+        <v>464.2667071743176</v>
       </c>
       <c r="Y40" t="n">
-        <v>3303.405146800851</v>
+        <v>243.4741280307875</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,7 +7396,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
@@ -7408,55 +7408,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1586.925993846823</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2120.457898518747</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2667.23671557753</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>390.3640755286979</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C43" t="n">
-        <v>390.3640755286979</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>390.3640755286979</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7645,31 +7645,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3484.372139114998</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3987.344609994335</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4382.118976351513</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8461,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8704,16 +8704,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>103.7862464855135</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>258.6211785616921</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>176.2173930448423</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>60.01894884691893</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9178,10 +9178,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9409,22 +9409,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>135.6385654278954</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476828</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>29.61882225792056</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>29.61882225792044</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>23.80814351663591</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>83.32522828944167</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>140.0567569711501</v>
       </c>
     </row>
     <row r="14">
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.653826316820698</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>106.3827795894033</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>130.3466769161725</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.34270184147232</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
     <row r="23">
@@ -24414,13 +24414,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>105.074288727014</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>16.14213605696682</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>15.13862860879414</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>17.43847836633014</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>92.48912964370399</v>
       </c>
       <c r="V37" t="n">
-        <v>190.0418235903385</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>24.8587461061212</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.67627119164528</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>131.3595915398105</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.0973192145763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117848</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117844</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117845</v>
-      </c>
       <c r="E2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="F2" t="n">
+        <v>516206.322953078</v>
+      </c>
+      <c r="G2" t="n">
+        <v>516206.3229530781</v>
+      </c>
+      <c r="H2" t="n">
+        <v>516206.3229530781</v>
+      </c>
+      <c r="I2" t="n">
         <v>516206.3229530782</v>
       </c>
-      <c r="G2" t="n">
-        <v>516206.3229530783</v>
-      </c>
-      <c r="H2" t="n">
-        <v>516206.3229530782</v>
-      </c>
-      <c r="I2" t="n">
-        <v>516206.3229530783</v>
-      </c>
       <c r="J2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="K2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="L2" t="n">
         <v>516206.3229530781</v>
       </c>
       <c r="M2" t="n">
+        <v>516206.3229530783</v>
+      </c>
+      <c r="N2" t="n">
+        <v>516206.3229530783</v>
+      </c>
+      <c r="O2" t="n">
         <v>516206.3229530782</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>516206.3229530781</v>
-      </c>
-      <c r="O2" t="n">
-        <v>516206.3229530783</v>
-      </c>
-      <c r="P2" t="n">
-        <v>516206.3229530782</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>25090.7236749938</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25090.7236749938</v>
+      </c>
+      <c r="G4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="F4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="G4" t="n">
-        <v>25090.72367499381</v>
-      </c>
       <c r="H4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499379</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499381</v>
@@ -26447,19 +26447,19 @@
         <v>25090.72367499381</v>
       </c>
       <c r="L4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="M4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="O4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="P4" t="n">
         <v>25090.7236749938</v>
-      </c>
-      <c r="N4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="O4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="P4" t="n">
-        <v>25090.72367499381</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26499,19 +26499,19 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="M5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-340214.3127939011</v>
+        <v>-340214.312793901</v>
       </c>
       <c r="C6" t="n">
-        <v>249753.5664206434</v>
+        <v>249753.5664206438</v>
       </c>
       <c r="D6" t="n">
-        <v>249753.5664206435</v>
+        <v>249753.5664206433</v>
       </c>
       <c r="E6" t="n">
-        <v>-332645.332969036</v>
+        <v>-333317.2878712939</v>
       </c>
       <c r="F6" t="n">
-        <v>394732.0810243707</v>
+        <v>394060.1261221127</v>
       </c>
       <c r="G6" t="n">
-        <v>394732.0810243709</v>
+        <v>394060.1261221127</v>
       </c>
       <c r="H6" t="n">
-        <v>394732.0810243707</v>
+        <v>394060.1261221128</v>
       </c>
       <c r="I6" t="n">
-        <v>394732.0810243709</v>
+        <v>394060.1261221128</v>
       </c>
       <c r="J6" t="n">
-        <v>218308.8618317779</v>
+        <v>217636.9069295198</v>
       </c>
       <c r="K6" t="n">
-        <v>394732.0810243709</v>
+        <v>394060.1261221128</v>
       </c>
       <c r="L6" t="n">
-        <v>394732.0810243706</v>
+        <v>394060.1261221128</v>
       </c>
       <c r="M6" t="n">
-        <v>265089.766185426</v>
+        <v>264417.811283168</v>
       </c>
       <c r="N6" t="n">
-        <v>394732.0810243707</v>
+        <v>394060.1261221128</v>
       </c>
       <c r="O6" t="n">
-        <v>394732.0810243709</v>
+        <v>394060.1261221127</v>
       </c>
       <c r="P6" t="n">
-        <v>394732.0810243707</v>
+        <v>394060.1261221127</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>38.7414264709825</v>
+        <v>193.4545838557739</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>22.38251672475439</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>95.65411327200084</v>
+        <v>240.0757403700029</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>1.593757588398006</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>283.005712744261</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>13.60179276195842</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>14.65885272800591</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>40.27160176557713</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31846,7 +31846,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
         <v>593.9283018233475</v>
@@ -32080,7 +32080,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32320,7 +32320,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33034,7 +33034,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33754,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060965</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,13 +35023,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492236</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35424,16 +35424,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>502.5482327048853</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M12" t="n">
         <v>451.7942679013292</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>766.6741794499112</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>427.0116978485618</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>515.6090632392511</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
@@ -35898,10 +35898,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
@@ -35968,7 +35968,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36129,22 +36129,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>643.6915663161145</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36682,7 +36682,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>800.292698040015</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>324.040058608738</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>568.5399380881473</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>485.2089366502526</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>274.6024483203554</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1738642.83043489</v>
+        <v>1742048.321559339</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>255.459364993998</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>213.4214618859375</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>14.46389722690833</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>56.58072854101201</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>163.1482332545336</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>83.84703239435426</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.027508828177</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>308.9734542191749</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>138.3295234829028</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>133.9566202902064</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>99.66075074687581</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1584,19 +1584,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>78.52789638094471</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>144.7801363297485</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>42.29200062050121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>18.26879610203984</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>113.5103646250816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2772,7 +2772,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>147.0633545968146</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.75769145492406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>208.271177022707</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>91.11971635671391</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>193.7227085619089</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>118.0927541397966</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>17.25588147840188</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>203.4068132192029</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>48.96782217799152</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1209.912517095719</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="C2" t="n">
-        <v>840.9500001553076</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>840.9500001553076</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>840.9500001553076</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X2" t="n">
-        <v>1209.912517095719</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y2" t="n">
-        <v>1209.912517095719</v>
+        <v>2212.181128500977</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C4" t="n">
-        <v>713.5189870075369</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>563.4023475952011</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
         <v>99.59950625323012</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>670.9767331549069</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>450.1841540113768</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1121.052642832205</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C5" t="n">
-        <v>1121.052642832205</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D5" t="n">
-        <v>1121.052642832205</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="E5" t="n">
-        <v>1121.052642832205</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>710.0667380425973</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>292.1029299407842</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4606,13 +4606,13 @@
         <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1507.652482896327</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>214.5386780278486</v>
+        <v>1580.775345511216</v>
       </c>
       <c r="C8" t="n">
-        <v>214.5386780278486</v>
+        <v>1580.775345511216</v>
       </c>
       <c r="D8" t="n">
-        <v>214.5386780278486</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E8" t="n">
-        <v>214.5386780278486</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F8" t="n">
-        <v>207.5931772786451</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>193.669773217236</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>193.669773217236</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977174</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1364.743608328862</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>991.2778500677821</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>601.1385180919704</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="9">
@@ -4859,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4995,19 +4995,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5020,67 +5020,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>3195.001976422504</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O11" t="n">
-        <v>3697.97444730184</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,73 +5096,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y12" t="n">
         <v>1138.808109517387</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>709.4168978689405</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="C13" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.060509258584</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1198.376021052697</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W13" t="n">
-        <v>1198.376021052697</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X13" t="n">
-        <v>970.38647015468</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y13" t="n">
-        <v>891.0653626991802</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="14">
@@ -5257,67 +5257,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216375</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5372,7 +5372,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
         <v>2436.460902902953</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.832110204571</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="C16" t="n">
-        <v>506.832110204571</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D16" t="n">
-        <v>506.832110204571</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E16" t="n">
-        <v>360.5895482553301</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553301</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G16" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W16" t="n">
-        <v>909.2731541783409</v>
+        <v>1437.173169922382</v>
       </c>
       <c r="X16" t="n">
-        <v>909.2731541783409</v>
+        <v>1209.183619024365</v>
       </c>
       <c r="Y16" t="n">
-        <v>688.4805750348107</v>
+        <v>988.3910398808349</v>
       </c>
     </row>
     <row r="17">
@@ -5494,52 +5494,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1296.118160724478</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M17" t="n">
-        <v>2274.668463554307</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N17" t="n">
-        <v>3254.420735780953</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.39320666029</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5600,7 +5600,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5612,16 +5612,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5703,22 +5703,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,7 +5737,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5749,37 +5749,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.715908442899</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3163.468180669545</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.722831322499</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5986,31 +5986,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6098,16 +6098,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6408,16 +6408,16 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
         <v>1015.408799357142</v>
@@ -6463,28 +6463,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
@@ -6545,7 +6545,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320243</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>409.4810578558177</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>409.4810578558177</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6992,64 +6992,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>264.4972173763014</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>505.4206280180455</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>355.3039886057097</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>355.3039886057097</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>355.3039886057097</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>187.6011519804287</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1257.381005660696</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V37" t="n">
-        <v>1002.69651745481</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W37" t="n">
-        <v>713.2793474178488</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X37" t="n">
-        <v>485.2897965198315</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y37" t="n">
-        <v>264.4972173763014</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001589</v>
@@ -7174,28 +7174,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>416.3606924710451</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>750.1800661608916</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1614.698881814246</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2593.249184644075</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3573.001456870722</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7253,13 +7253,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1747.227398620013</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1525.460783189539</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1236.357916315183</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>981.6734281092956</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>692.256258072335</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>464.2667071743176</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>243.4741280307875</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468568</v>
@@ -7490,19 +7490,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,22 +7520,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
@@ -7654,19 +7654,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1971.087962216427</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M44" t="n">
-        <v>2504.619866888352</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N44" t="n">
-        <v>3484.372139114998</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O44" t="n">
-        <v>3987.344609994335</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4382.118976351513</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188665</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7836,22 +7836,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>1475.240411894569</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8224,7 +8224,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8461,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050811</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P11" t="n">
-        <v>103.7862464855135</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8929,25 +8929,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260153</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.2173930448423</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9166,19 +9166,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>60.01894884691893</v>
+        <v>241.9338129178262</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9409,22 +9409,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>135.6385654278954</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>133.2530576400255</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,22 +11302,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>23.80814351663591</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3.556976973657214</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>140.0567569711501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.653826316820698</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>244.2309977160898</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3466769161725</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>17.43847836633014</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>53.63529855760687</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>92.48912964370399</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>71.67627119164528</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>131.3595915398105</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.14213605696631</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>176.7418332110456</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>897877.7408966769</v>
+        <v>897877.740896677</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>897877.740896677</v>
+        <v>897877.7408966769</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117844</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117848</v>
-      </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
         <v>516206.3229530781</v>
       </c>
       <c r="F2" t="n">
-        <v>516206.322953078</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="G2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="H2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="I2" t="n">
         <v>516206.3229530782</v>
       </c>
       <c r="J2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="K2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.322953078</v>
       </c>
       <c r="L2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="M2" t="n">
         <v>516206.3229530783</v>
       </c>
       <c r="N2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.322953078</v>
       </c>
       <c r="O2" t="n">
-        <v>516206.3229530782</v>
+        <v>516206.322953078</v>
       </c>
       <c r="P2" t="n">
         <v>516206.3229530781</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="F4" t="n">
         <v>25090.7236749938</v>
@@ -26435,16 +26435,16 @@
         <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499378</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="L4" t="n">
         <v>25090.72367499381</v>
@@ -26453,7 +26453,7 @@
         <v>25090.72367499382</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="O4" t="n">
         <v>25090.72367499382</v>
@@ -26481,16 +26481,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-340214.312793901</v>
+        <v>-340214.3127939011</v>
       </c>
       <c r="C6" t="n">
-        <v>249753.5664206438</v>
+        <v>249753.5664206434</v>
       </c>
       <c r="D6" t="n">
-        <v>249753.5664206433</v>
+        <v>249753.5664206432</v>
       </c>
       <c r="E6" t="n">
-        <v>-333317.2878712939</v>
+        <v>-332712.5284592618</v>
       </c>
       <c r="F6" t="n">
-        <v>394060.1261221127</v>
+        <v>394664.8855341447</v>
       </c>
       <c r="G6" t="n">
-        <v>394060.1261221127</v>
+        <v>394664.8855341451</v>
       </c>
       <c r="H6" t="n">
-        <v>394060.1261221128</v>
+        <v>394664.885534145</v>
       </c>
       <c r="I6" t="n">
-        <v>394060.1261221128</v>
+        <v>394664.8855341449</v>
       </c>
       <c r="J6" t="n">
-        <v>217636.9069295198</v>
+        <v>218241.6663415521</v>
       </c>
       <c r="K6" t="n">
-        <v>394060.1261221128</v>
+        <v>394664.8855341447</v>
       </c>
       <c r="L6" t="n">
-        <v>394060.1261221128</v>
+        <v>394664.8855341451</v>
       </c>
       <c r="M6" t="n">
-        <v>264417.811283168</v>
+        <v>265022.5706952001</v>
       </c>
       <c r="N6" t="n">
-        <v>394060.1261221128</v>
+        <v>394664.8855341447</v>
       </c>
       <c r="O6" t="n">
-        <v>394060.1261221127</v>
+        <v>394664.8855341448</v>
       </c>
       <c r="P6" t="n">
-        <v>394060.1261221127</v>
+        <v>394664.8855341449</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.225657850375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>109.8135267770096</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>193.4545838557739</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>152.7829238717195</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>169.1289268480251</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>218.7821368177282</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>240.0757403700029</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>17.49548950841404</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>45.70958740150809</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>13.60179276195842</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28016,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>14.65885272800591</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>186.6211234951019</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32560,7 +32560,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32797,7 +32797,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -33265,10 +33265,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,16 +34944,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N5" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343419</v>
@@ -35181,16 +35181,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P11" t="n">
-        <v>502.5482327048853</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814159</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q14" t="n">
-        <v>427.0116978485618</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>515.6090632392511</v>
+        <v>697.5239273101583</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36129,22 +36129,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>643.6915663161145</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>324.040058608738</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38022,22 +38022,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>274.6024483203554</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
